--- a/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
+++ b/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT\QuanLyThueDat\QuanLyThueDat\QuanLyThueDat.WebApp\Assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0A5FB-D194-47AF-AF95-BCD60B93CF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BDC9B2-A952-4892-B37D-8620D31B0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27045" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>UBND TỈNH NGHỆ AN</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Diện tích được miễn</t>
+  </si>
+  <si>
+    <t>Số tiền được miễn trong 1 năm</t>
+  </si>
+  <si>
+    <t>Tổng số tiền được miễn</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -123,11 +129,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +223,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:H4"/>
@@ -445,15 +529,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -465,7 +551,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -477,7 +563,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -487,7 +573,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -497,7 +583,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -507,17 +593,19 @@
       <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -533,17 +621,24 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
+++ b/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT\QuanLyThueDat\QuanLyThueDat\QuanLyThueDat.WebApp\Assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BDC9B2-A952-4892-B37D-8620D31B0BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C440CEA4-A3FD-4844-ADBB-BB624A35B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="27045" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UBND TỈNH NGHỆ AN</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Tổng số tiền được miễn</t>
+  </si>
+  <si>
+    <t>Vị trí thửa đất</t>
   </si>
 </sst>
 </file>
@@ -216,6 +219,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -232,12 +241,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,39 +534,41 @@
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="55.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="6"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -571,74 +576,80 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+    <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="K6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
+++ b/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT\QuanLyThueDat\QuanLyThueDat\QuanLyThueDat.WebApp\Assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C440CEA4-A3FD-4844-ADBB-BB624A35B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458F06EE-6ECA-4334-9DD8-A7A334CB6867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,10 +40,6 @@
 nghiệp</t>
   </si>
   <si>
-    <t>Mã 
-số thuế</t>
-  </si>
-  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -69,6 +65,9 @@
   </si>
   <si>
     <t>Vị trí thửa đất</t>
+  </si>
+  <si>
+    <t>Mã số thuế</t>
   </si>
 </sst>
 </file>
@@ -526,15 +525,16 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="55.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="27.140625" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
@@ -547,8 +547,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -560,8 +560,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -572,7 +572,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -597,59 +597,60 @@
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="K6" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:J5"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
+++ b/QuanLyThueDat.WebApp/Assets/Template/MauBaoCaoQuyetDinhMienTienThueDat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNPT\QuanLyThueDat\QuanLyThueDat\QuanLyThueDat.WebApp\Assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458F06EE-6ECA-4334-9DD8-A7A334CB6867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3C5A50-3F1E-4A73-9D4F-22862FA04392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>UBND TỈNH NGHỆ AN</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Mã số thuế</t>
+  </si>
+  <si>
+    <t>Địa chỉ thửa đất</t>
   </si>
 </sst>
 </file>
@@ -522,64 +525,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="55.140625" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="3" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -589,8 +595,9 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -600,57 +607,62 @@
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K5:K6"/>
+  <mergeCells count="10">
+    <mergeCell ref="L5:L6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
